--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/71_Şırnak_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/71_Şırnak_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCC84AA2-C664-4AC7-A04B-5340BEF604E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC59924-12DB-4BDA-AE7E-8EECAE769D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{2ED62A76-14C4-4F4F-AB76-C6C687D9AFEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{74A5160E-6A33-450E-900D-C655CE11E658}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -946,14 +946,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FF0699F4-5336-4571-A535-134727DDE2ED}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{797B57DF-AE88-4547-8BF7-7DA0CD86811A}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A6CCD893-BB72-4B04-AE3C-E770AEED6EA6}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{9CD6AC9C-6837-4E4C-93E9-003E5A62EED6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2ECF4F65-1F65-436F-A18B-CB50800265DC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9EAAE047-D128-4417-95AC-85A96E08985E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6D86F3D0-EFE0-4031-AB6D-E077538E0415}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4FF05D5B-9F7D-42ED-980E-E89F2C793445}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0BF3B990-630B-4E0A-912A-D2E4FA480997}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{11ED7FAE-4887-4F35-B6BB-3AFBE28A79FC}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A6F1B4C7-3333-4F95-8078-5EA327DEA75B}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{ED8F6F7F-394E-4D8D-97BC-CE01244E7446}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{29D8B4F7-6A29-4F39-AB80-EC4398BB7F25}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B2A40722-FC17-44D2-AC81-06763E88D321}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{56867579-ED1A-478B-B071-5E85B125F804}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A259E53C-62CC-49BB-8C6C-280FEF0C0A1B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1323,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E01E2-19FA-44A3-A10D-EDE57A6729B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BDC4B1-F9D5-46AD-BAE2-4669E963CB4B}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2601,18 +2601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{168D761C-B70B-4FB1-9AC6-DEC526A4B7F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{546E9169-3228-4B5C-B1FE-AF56B1FDA60C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{835309DA-6580-4A0A-9F6C-7D2EBC706E6A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF5718D9-453C-4A3A-B839-2D4E6BBFDA11}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB8F5088-9780-46EF-86DA-BADF03A6454C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{893D5BFC-1C61-4213-8F6A-F8FA13FC2C61}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{74421BA5-F5C5-410B-8D43-A67016CF783E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4FD8FDC-0EE5-4EB2-B206-2D74AEE3A295}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50A7756C-EF55-42CB-B5F0-8758641E30AE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{94D16B06-E856-48D3-9D39-7A7ED62AB1FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02C8AEE1-913A-4E0D-8E5F-C22D5069D996}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{11E02780-2491-48B1-9A79-47876F564B74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D40C7FC0-8A7D-4371-9102-0075B6E6DFA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{993215FB-13D4-4545-99AF-7BFDB733247C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C237C350-BA5C-4E20-84B5-DD787ADEDB7E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{080AF2D0-9191-4610-985A-5A7B2929BAAB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5428E08C-3F84-4D49-AB44-529D8139EE19}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B42A70D2-E6BF-47D2-AF98-E5346F0D5129}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B075EC36-8EC8-4476-A948-E4757534F87B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07506DE5-C8BE-4227-90BB-E2CC9A28AD60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D40DD82B-75FD-4B95-932A-061F3EB06D0F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4D7B1B8E-6F33-4E90-AE16-AE7BA5653F3C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5C602AE-DB25-4FBC-AF2C-50464D8E2D3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63217B15-BBAA-4FF0-B062-B2A9B43E8C66}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4876471-D431-47F0-AF7A-3F389712CCF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F8ABB7-FAF0-4CDF-9332-3915B8513754}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3939,18 +3939,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C3A09CA-039C-4BBD-BA8A-EC294EF99DEF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{496EAE69-354E-4E9B-A1C5-8CBB5314DD89}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBAF7BA1-6CA6-4769-8760-1F67A5C7B6EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7CD5C65-587F-4A96-BF0D-28B70A4487D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93D42752-B4A7-473B-871C-30F070C9FFEC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BEF6662B-E6EC-465B-BEA9-691CDE0D12FF}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{402ADC85-52CB-4CC7-8265-1AE023AFE0A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8591B4BD-3250-4341-882B-C36DCC1A2A61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59117793-2DC9-48F4-A682-32BDFCB1DB6A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A32C24C1-781D-4314-B44A-D0C6BA1B6ED2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95911DF3-5377-44EC-849C-29AECEB40160}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80C8EC45-A628-41F6-A639-16A96E3D0807}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{296393B7-D8CF-4BA3-BA7B-0372C69B9636}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3552BBFF-E5D1-4A09-B755-5BE96B35B21D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5B815381-4E18-469A-B02C-8012B697D947}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3EEA1452-7117-46F7-BED9-6857BCA91C88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B57C541B-9E84-47B1-9541-B1BC9E060099}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6F5363DF-01DA-49AE-9CDA-360B5FDC41B5}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7B47DB7A-3567-42C1-A5BC-85D0C3A1916F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3E03A66-638E-44F9-9E34-DFE3650E2DE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8C613D3-CC52-413D-A48B-1CC114E63833}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{84593EBF-E4D8-4D8E-B858-C447185BA45B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5D82813-97D8-40AE-A190-09849C3248D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33ECCBD8-3A12-4E2C-8944-7487AD72AD69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C422AEAC-7632-4AA7-BB67-764B5221B8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B8C01-082B-4277-BE90-1F2A471691E5}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5267,18 +5267,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{989DF36D-72F6-4A33-BB4A-D301839046D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED4E00D5-4942-453D-8959-BF208DB5DC0C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D829AD6B-56CA-45C4-8C24-DB450209F497}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A8F7520-0CFC-4C5C-BCC9-DBB029DFCEE7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D09BFA3-B6DC-4E23-AB5E-A944BB26A999}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC49CDF9-E9EA-442B-9024-88FA624F2689}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{17AFB44D-6C7C-43C6-869B-BF969BD0FE95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{558CB223-E1BB-479C-86BE-DC171CA99F15}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C3A5884-CE81-46E5-AA49-DF8AA02A685E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A80BF858-5041-4E62-87CA-77A1707C4FE5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBE3CA16-D176-4F8B-A276-D75146CEA959}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{800E8462-45E0-409A-B67D-703A5497E539}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39DCC602-D859-44C4-9BE8-A4A27D92E184}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEE08090-B884-4E5E-8C08-144617CE0F47}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C77D716-A865-4E67-ADDB-66F4A2284C04}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCFE10AD-FBA9-418E-B18E-4E67F29336A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{176AF2AA-2C65-4921-A2E7-8284499A1C63}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0FA46B4E-9F46-4992-A799-DBDE72017854}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C7CEBC89-E4D3-4E97-9B14-FEA4BD3BFC95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AF881F5-B1F9-4CB9-B7FE-E4B2E18C56F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A8EE187-CAEC-4A87-9DE7-E8A3986DB0A8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A83BB75A-64D3-4229-9228-AC2082050C4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B66F0ADD-46A5-400A-BE56-AAAE8D262DE9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17997FBA-8E6E-43A1-81FA-643493B88FED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5291,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D28439-A2E6-45C9-B2DE-8D1998C7ED4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3E5A00-10C1-463B-A115-E5B47F700F8B}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6587,18 +6587,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34A6A386-5CF0-4A82-A9C7-D4E2CA96C74D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{855A4024-8338-4003-9133-FEFD1207B234}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B9AA393E-34F4-4D7F-B0AD-E99F31E610EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1878B4F-5806-47E4-B587-57087EFE2E78}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{076C2D04-E0E9-4C6A-AAC3-4736E0F965D2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A618BBB-E19A-4AB4-9D13-A3898C0BCFF5}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{86062079-B195-4484-8D76-2662E810521D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E26D0E61-3296-4DC2-BF7A-33D722DCDCF8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F57FF755-8C04-4E83-AA31-2AAB57335CCA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DCD60ABD-0722-4594-8277-6925E250E8C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B992554A-8EC7-4A66-8B32-388F0038A338}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46020288-13AE-4184-A615-9EA7FFE59C65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F73B451A-FAC4-4480-ACC0-713D004A09D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76AFDBD9-B081-466B-B50A-03FED9130544}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4E03BB1-170F-48AB-864B-D2C6BE7CB1E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D00C60D2-B4F3-4435-B4BD-B7645767C29F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{035026CE-AE65-453F-80C7-D269FE9D467A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83EA2465-5896-4AE2-836C-D710FF734C2C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6855B158-DBC4-4D2F-A2C4-C5B016B8D128}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{834F8B91-9AE4-47E9-8339-D285C189BF32}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8FF34C22-68D1-42D3-B60E-28DDE67C1F9E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{03518576-29CF-489D-AF3C-6B1AFB3F13DB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31C36DF7-7CCB-4801-A5FA-A8D921AB6F4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4522930-7E43-4B02-9D82-EB9483660799}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6611,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D7E684-56A2-4CBC-9DEF-48628ADBCD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB3F436-9BC9-4CFF-9EDC-041E6EF740E7}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7889,18 +7889,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7E53FC8-9E50-4A6B-9DF0-B730C92AF8E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A123A786-2195-4A3B-AB36-1BC380CDD2D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9FE525C6-5850-40EF-A205-798C30E380C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96C7734D-5F2F-46AA-B56D-B3AD826EEF32}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BE20F07-2D67-40C1-A70D-4C8CE73E0A65}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C68EEE95-F12C-4F09-ABCD-C11275E8C310}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2126873D-5C2A-451F-82BA-B62D6A09C1ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4826BBAF-0D87-4088-BE73-076036C88FAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E99CFBCC-0D41-497A-A4CB-F8CCFB97B576}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E9B12DEF-FEE3-412F-8B72-7156945008A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FC20E70-3395-439F-949B-0DE0D7BC3215}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D56C6E5-E1C2-4BCC-B837-1F69B081DE0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A49D752-B273-4041-B95B-2048C652314E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BAC210A-48A9-4DEC-953E-7E7D2574C56C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2941BC1-218C-48EE-BCBF-27A381849F70}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{691DCABB-99BB-4197-A77E-6F1914EB7B3B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89DF8186-E5CC-4A1C-BED1-4E095538FB9F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E571E610-25A7-4529-A6F6-FDB89E1379C0}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{320AD06A-DC8C-4A49-9ECE-3998E3820D11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{834D9CB1-71C9-4FF4-B03D-892BB3FEAE54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2AF2E91-FC6D-4175-894C-63184DB76994}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D0FF2ADF-3878-472B-A575-DA96BBC05CF1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B603A27E-4A37-48EC-BDE3-2F6FB9ADFD64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D36C18CE-6652-4FF1-B6C4-6960B7134EA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7913,7 +7913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8920B9C2-1D78-45B9-8555-CBCC423BEC0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09D4E53-D597-4901-A849-2E08477A7945}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9197,18 +9197,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{073E3A83-3E76-4B14-BB83-C54B4FE3B6A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0910567B-A722-4B52-A7D0-107A294F4842}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{40F294D9-65F4-4CE8-B265-2DFB675DE287}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F075406-7903-48CD-A348-2733D009CCEA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB6D082E-B0FD-4670-B951-2B752675ABC4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E22744FB-615A-4ABD-B49A-1649DA0D8E44}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7836478B-294F-4683-AFF6-732B250FDD5C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB2B64B5-DF00-49FB-9B0D-F9FBE61F93DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{031A44FA-DD2F-4611-940A-644FFE16A4BE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB2995A4-255A-479E-B541-1BB3EF54FF96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9364A75-DB8D-4741-BCDC-22D32CD220E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{458F8C77-B953-4EF0-AD23-12C6667AE4D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF148DEC-1C1D-4909-A5A0-3A1F2912F269}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{330EADF5-B301-4C91-9305-677755B91E88}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8918C3F9-F5EF-46DB-BDBB-910B783ADC23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9403BF3-D3E5-4EF9-AC46-ACE5F4BF45AF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF8D34B6-4606-417A-8102-B5B2CEEA28F6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{119530AC-0980-4602-A9B2-6B7C32F8BE12}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{00416483-E08B-4838-9388-19F33C7099A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72122E5A-C6A9-4683-94D9-8C022F3D22F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C703C640-A0E1-4359-A6E7-D7FC72978A7F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C6A57161-7CF3-4AAE-B9EC-1BB058C5186D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3C48806-57A4-4884-8879-E1F4FBE70FEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50A91959-CDF8-45F4-9ED0-5A60CDBF01D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9221,7 +9221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C04D93-F74F-49BF-BB6B-B40A98AFD50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3823DD-92D3-40C1-93FC-A12B458824E6}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10505,18 +10505,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12B73CD7-2E9C-4910-835F-119D53796807}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AC7B092-F8F1-40A8-B3AA-BC4B550A669B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9F7911D-C840-490A-8F57-74E1C1337494}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08BEB3AA-90F2-4EB9-ABCA-D9B3BA5221A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92E9DCAD-8EE8-4E27-8D23-233CEA02AE30}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF46FDC7-9E80-40D2-B07D-23A96E854B29}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{914A6BA5-099D-4942-90B7-6DFC60F6FBE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1A8A7DD-1300-4CD2-8698-2B60F274B948}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99876C1B-2804-4F8C-BE2C-3051E42C4418}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22BECF72-FF49-442D-9C8F-4E4E08F2EC0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B00A0FC-9725-4D86-BADC-261652B252D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D049F6B-1A3C-450B-9BCE-E7805364ECB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10B9BCBF-3D2C-4AAD-BD3D-30293E87B527}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{738C2CD0-18B3-4A18-8F77-84A8A3130AA6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B1E857C-53F9-434D-A217-3A440E73736C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC664E17-B1E2-46E0-8D58-155AFE5C31BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C275CA9-D77A-49F3-AFA1-B92BA4EC21BA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4CF53660-CDF7-40AE-AAB1-57D4A75FA771}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{EAE69452-6066-410A-A9CC-62032F67DBAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D159303B-9A9A-40C4-9E83-CF6ACB313CB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DE32CAD-EF54-4B50-9AD7-FCB32CE09C19}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89262B85-4F65-4420-8F8E-C6C27B9EB643}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE5D52AB-A72B-46E2-A157-89026EC91B14}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2877E56-26F5-422D-A700-E450AE0ECCD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10529,7 +10529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC7246-E624-4B45-8DF5-1A613B26EBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B90EE9-40FE-46AC-A2CD-F23FCDDD72D1}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11809,18 +11809,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDAE0D1D-8CB3-40B0-9F27-C621D27EE61B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D98B0914-8933-4DCE-9D10-D5D68B5D6CB0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F046F507-13BC-4824-B400-8321A48D9BFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77D3B99C-3DCF-4889-B748-58C956A58559}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBF6B508-F88F-4829-B972-20DC66F0302B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1ABE8FE7-51E2-4CA8-999D-33D7388FEACC}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7AC3CD5E-C1B9-4535-9588-44EC8D644177}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AD5A709-F8BE-4F97-A42E-87F8FF6D588D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{510BD8F9-0C08-4207-937F-11E98E016D13}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EDF898EB-04B9-4B35-8E2A-7E5AB6C62D64}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{208D5AE4-563A-496C-9125-35295621267C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82CC6636-662A-476B-BDDA-8E00F80783A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6275F311-4F86-45C8-BC00-4C670CB78652}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73F99DE3-B3D7-4B0C-8C14-466A2C8CF9AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA4B0498-7BE0-47D4-8E0F-D70C11280E49}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40047F2F-532F-4809-A6F8-9DE5B0F3CC4A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A1CC134-F732-4D66-8C4D-55B3091373B9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A5DF4D2-F6E5-447D-A94D-B53B6D38633C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2D6197F3-B520-4739-961A-9B89BF50E8C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6D2F9AC-22CA-43AA-93BD-C33B8CEB8CA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{919E614E-3421-48FA-B34F-189D2AB6E186}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{37DECA22-8BE8-4ECF-AEC2-2C8C5F37B574}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFBA22CC-91DD-4F04-BECB-70E476F96FD8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07D5DAC7-1F97-41AE-858C-78E3A664F1AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11833,7 +11833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEB5299-A36C-4840-85EA-45D7F607F73F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD264FA-F1F1-433B-A605-56B462A4DDBC}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13105,18 +13105,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E63C3773-55DB-444E-899E-88307981C9FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{078FB71E-614E-4864-9C1A-B275CA76E135}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{067C1351-628A-43B6-9F23-9F12F57AB686}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74F6888D-A92E-4E22-90BD-2F836EA955C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FC762E5-CB80-4DDA-8F28-5140788F484E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E3C8AE0-B866-4430-9625-CB1E3846A543}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2917BA80-B38B-40BD-91D3-F19158073D86}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B362E67-0D2A-4BB0-B024-BD4C1A014A3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42E09D21-AC0E-4B24-88B1-4DA7E4D978AA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4FCF4A9B-DD4F-4297-9E1A-B4BE6D7AC309}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04B8D30E-3499-4739-9CA9-6A148C8ED018}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7A399E9-FC14-4F79-8405-D520162A702A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C0D1C32-1556-41A5-8B46-BF406183D56E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDB5839C-5DDD-48A9-866A-8F181ACADC35}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E3B9801-E0FE-4BDD-84C7-6E6D6E2D2106}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63E55ECC-D74E-47AA-83F0-F5FF36C369B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAECA368-B7F7-4E61-8F50-AA3E543CBBD5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B4F8868A-0403-46C9-8F90-0EE4DF697501}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{CBBBA508-D061-4DC7-81CC-4F91537954AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3CA87B7-2395-4EA7-8DC3-FA2AE5D0BBFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{009C3FDA-6FE6-4F45-8D91-2CCB8DD03E0A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C416C988-6D0A-496A-BD27-F2ACBF8F0307}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{282FDCAF-9DF2-4739-9901-39B8084FB73D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45082662-1B25-4A1A-87E2-C34D77F3539A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13129,7 +13129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4F937-48C5-4489-9BB5-7AA48C53B986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678733B4-60E1-4E5B-B132-8EBBE2EB40D1}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14443,18 +14443,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F15F1C55-6E20-4DD8-BA4B-9728A1F0B38C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B3003B6-3DFB-40F1-A73B-B9A9A403220D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{859F78C1-BBDD-4AF8-931E-AA7CDCC5FCC2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2F49B86-1DC5-47C9-BC43-A1A79269F6B6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CA055C3-5AA9-40D9-BDE8-9BDB8D83DA3D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FF4576C0-8C01-41CB-A9AB-05F71D0D770E}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F9C17AEF-A62C-48CA-B570-3DF56FEFB404}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3461929A-33E4-45BA-990D-2378FD4D1799}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B7FF657-B0A3-4EEF-95C1-AD4A63BF0D8A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9FA0265E-D38D-42D2-8ED8-88A16421179E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DDCA0F4-01E2-434A-8F5F-D9C9E887ACE8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C7FF9D8-6A56-445E-AE52-E60546AEF167}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C25A1C9-7A52-4392-B4C2-A102EEF0A98C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{981A79BF-A741-41B3-BC21-EF06CBFD8124}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27032243-0325-4D42-8D6B-3146394A8D77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{45C7A972-42B8-4402-8F86-27B5255BCDAC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE6548BF-3248-4F8F-856A-91C72806E6FA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F1648C93-1643-48E2-9A23-BEDD0BDFB745}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{790091AB-3279-4D48-942A-497510BFEE49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5442E7D-02CC-43E6-B81B-7A49CEFD35EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E2DC60F-329B-4C95-9A66-C78E506F46C3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{72D11E87-5073-4091-8654-F1AE5AF9C9A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{260BD8DC-DE8F-43C9-89DB-FA5BFBA59BB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87C06157-7CC6-49D1-9265-EB604538F24D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14467,7 +14467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E643F-FF90-489E-A52A-9957EA9078FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66831D9D-9CB5-4705-A753-50FAC6FA82E4}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15781,18 +15781,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A757DE44-B21E-4575-83DE-3AA5DCC7EA10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DCEE41B-4BA4-42CF-97FE-673B9B9A1D40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6FAA94BF-CBEA-4D7E-B8BB-EA9E2D851473}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D71125AA-C1B1-43F3-B5FB-E1473A3216DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{961AD1BA-2A9F-406F-A865-C4ECCBEC016C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A1EF475-6B11-4C31-B24E-40AAB86F58FC}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B72434D7-29B5-452B-8F2A-5222CF75A9CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{61A70A55-52C1-4A17-98E0-7A3DA58E57A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74CF2C23-B6B4-45B4-94B6-EF18EEC5CA75}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E144E8A-2B95-471C-B51D-770D301B0876}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B231F2A-79CB-4721-A147-78E34C249B9A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{748EC7CF-C802-46B9-A9BD-CDF723AC8D65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E54E7DF-9216-4B58-B147-8604ED7A4CB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1A7B5DE-E816-4ED6-A01A-05D317A307DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB80EF62-1937-49B3-B159-428632D71AB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D8EBF5E-9F43-4081-85F9-1D37302D9BEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11269732-3F50-4AF1-97F3-08D84D0DC687}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AB8299C9-E9C9-4D7C-AB3F-68A0394D5B93}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{89E0929F-BEE1-4D03-A4D2-BD7D3E5E9B8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9466E63F-BA09-4A04-9DFC-F0C4C44BEA68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C681AA99-4C0A-43F6-BEE0-22C6328CC624}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EFC829B0-AF4B-47A2-8B3E-B8705F1B13F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54858B69-6711-4D6B-9F78-ADF8C75B9182}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B63DCB9-9188-4788-A19B-DBECE3CFC157}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15805,7 +15805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBA48A8-A068-4613-A48C-F3676B05CA65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B282A92-C39D-4F02-8F23-2124E8AFBF26}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17119,18 +17119,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{183E21C9-D3AF-421B-8860-5D99EC01D6E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A583C1C-3B2B-4B19-A0EA-18335CFABF37}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20C371C5-A932-4D1D-BDF7-A4447C620656}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12FEF193-C50A-4D2A-B091-DAB3F2D6D655}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E1FDB83-6C48-479F-8003-83C8D392B7E9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{982E6500-F6F8-4858-AA03-90FF4E0A39EF}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2FF42C91-BD6D-4347-9B1F-CE0B76C1CE97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5B003AD-2B50-49EA-9F33-CA587EB27001}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC285CD-071C-4A42-88EE-358991EFD494}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1841BE00-9F63-4EAD-B683-099ACD53F2C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FD0EBF0-A57B-4D75-B8AB-C9CF7240926E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA906ED2-49DF-4B9B-A8B1-5E7D7C1BF02E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9771E9C5-CB96-4BA5-A150-FA1025350E47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B186F57-3095-4F90-BEDD-DF0DC6F22CE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{319C46EF-09E3-46F0-BB3D-9EC5F8E3162A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B2D0246-1970-4119-9F9F-74B23C66845D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83CAE7A0-0805-4DCE-BA5F-3F706EAD6FDD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83532C09-2EA3-417C-83DC-F26E6EC1A7DE}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{0DFE917B-7A74-4EA6-9C91-119B43531D6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71BC5F4C-BA86-43B0-B7FD-524272D20883}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E808B71-01EC-444F-B213-615B18D5023C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A16D062C-6F8A-430C-917A-182750012D36}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C185C224-6C8F-4E03-906A-56DF7989A32D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0097F685-6CF6-4B47-B0A5-6407B53BBF40}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
